--- a/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="168">
   <si>
     <t>Property</t>
   </si>
@@ -455,12 +455,6 @@
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/units-of-time</t>
-  </si>
-  <si>
     <t>Quantity.system</t>
   </si>
   <si>
@@ -484,6 +478,12 @@
   </si>
   <si>
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/units-of-time</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -2001,29 +2001,31 @@
         <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="X11" s="2"/>
-      <c r="Y11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2032,7 +2034,7 @@
         <v>84</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>107</v>
@@ -2041,12 +2043,12 @@
         <v>136</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2072,16 +2074,16 @@
         <v>120</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>75</v>
@@ -2106,11 +2108,11 @@
         <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" t="s" s="2">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>75</v>
@@ -2841,29 +2843,31 @@
         <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="X19" s="2"/>
-      <c r="Y19" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -2872,7 +2876,7 @@
         <v>84</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>107</v>
@@ -2881,7 +2885,7 @@
         <v>136</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20">
@@ -2912,16 +2916,16 @@
         <v>120</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>75</v>
@@ -2946,11 +2950,11 @@
         <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>75</v>
